--- a/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBA64A9-6035-4A70-97D1-C970B73DFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4E7020-4224-4B1D-89A9-1332403B0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43D2E985-0B25-4F45-818B-7531570B1003}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6B9CB4-C6CF-4543-9330-F444FFECABCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="144">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -170,285 +170,297 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>0,64%</t>
   </si>
   <si>
@@ -459,12 +471,6 @@
   </si>
   <si>
     <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F2E02-2BDC-4610-B94D-CF3C45671F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF4CF6-3649-4793-AD89-F3C59813F4AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C2605A-67A1-4D0E-8C69-8597E8B78381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53C09E-0B81-4C4A-98E6-939C9291691C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1906,13 +1912,13 @@
         <v>15956</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -1921,13 +1927,13 @@
         <v>31695</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -1936,13 +1942,13 @@
         <v>47651</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1963,13 @@
         <v>1944066</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>1601</v>
@@ -1972,13 +1978,13 @@
         <v>1720154</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>3438</v>
@@ -1987,13 +1993,13 @@
         <v>3664220</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2067,13 @@
         <v>7222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2076,13 +2082,13 @@
         <v>2993</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2091,13 +2097,13 @@
         <v>10215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2118,13 @@
         <v>473110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -2127,13 +2133,13 @@
         <v>454661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2142,13 +2148,13 @@
         <v>927771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2222,13 @@
         <v>37354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2231,13 +2237,13 @@
         <v>82913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -2246,13 +2252,13 @@
         <v>120266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2273,13 @@
         <v>3372564</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>3199</v>
@@ -2282,13 +2288,13 @@
         <v>3452964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>6362</v>
@@ -2297,10 +2303,10 @@
         <v>6825529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>109</v>
@@ -2378,7 +2384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456907D-5DC5-4F43-AE16-F7AA04EDAC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10E34E-E948-4DC7-99B9-F7079C250FAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98351B94-8172-41A8-A8DF-D6DDD5725A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D05295-D833-44D3-9B12-FC8F743F8881}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3322,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3337,7 +3343,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3414,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3462,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3569,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3584,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3599,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3632,7 +3638,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3647,7 +3653,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3739,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3787,7 +3793,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3796,7 +3802,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -3847,7 +3853,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4E7020-4224-4B1D-89A9-1332403B0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AA9590-5E33-4294-B5E2-4A2B17DBFD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6B9CB4-C6CF-4543-9330-F444FFECABCE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755D2546-A84F-4141-9A92-A7695B720BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="146">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -173,7 +173,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>3,64%</t>
@@ -182,22 +182,22 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>97,47%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -206,7 +206,7 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,24%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -215,49 +215,49 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,72%</t>
@@ -266,211 +266,217 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF4CF6-3649-4793-AD89-F3C59813F4AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED59BD-93C5-423E-8A3C-97A6449E63D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1239,7 +1245,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1290,7 +1296,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1633,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53C09E-0B81-4C4A-98E6-939C9291691C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1676D2-6BA7-487C-AE01-CC6515661A54}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2100,10 +2106,10 @@
         <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2124,13 @@
         <v>473110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -2133,13 +2139,13 @@
         <v>454661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2148,13 +2154,13 @@
         <v>927771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2228,13 @@
         <v>37354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2237,13 +2243,13 @@
         <v>82913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -2252,13 +2258,13 @@
         <v>120266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2279,13 @@
         <v>3372564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>3199</v>
@@ -2288,13 +2294,13 @@
         <v>3452964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>6362</v>
@@ -2303,13 +2309,13 @@
         <v>6825529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10E34E-E948-4DC7-99B9-F7079C250FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C38DEF-9D1D-42BB-8901-19991DDBB50F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2401,7 +2407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2514,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2529,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2544,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2577,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2592,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2669,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2717,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2824,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2839,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2854,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2878,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2887,7 +2893,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2902,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2979,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2994,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3009,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3033,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3042,7 +3048,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3057,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3135,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D05295-D833-44D3-9B12-FC8F743F8881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0F81A2-B3A9-40E3-98C7-5679BCE232AF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3265,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3280,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3295,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3319,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3328,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3343,7 +3349,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3420,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3435,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3468,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3483,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3590,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3638,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3745,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3793,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AA9590-5E33-4294-B5E2-4A2B17DBFD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7EB354-BC9B-41F6-B70D-089D11F0DF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755D2546-A84F-4141-9A92-A7695B720BD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44E4E245-400A-4A0A-97EC-3FE50436451D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="142">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -170,103 +170,109 @@
     <t>1,46%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -275,7 +281,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,67%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -284,22 +290,22 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>96,33%</t>
+    <t>96,19%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -308,7 +314,7 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -317,10 +323,10 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -329,31 +335,25 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -362,19 +362,13 @@
     <t>97,66%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
@@ -449,16 +443,10 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>98,95%</t>
   </si>
   <si>
     <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -888,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED59BD-93C5-423E-8A3C-97A6449E63D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AED78E-CE9B-4112-BE3E-011F5F24743E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1245,7 +1233,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1296,7 +1284,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1639,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1676D2-6BA7-487C-AE01-CC6515661A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9A315A-3489-4E33-A69B-35B12BA01BE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1918,13 +1906,13 @@
         <v>15956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -1933,13 +1921,13 @@
         <v>31695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -1948,13 +1936,13 @@
         <v>47651</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1957,13 @@
         <v>1944066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>1601</v>
@@ -1984,13 +1972,13 @@
         <v>1720154</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>3438</v>
@@ -1999,13 +1987,13 @@
         <v>3664220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2061,13 @@
         <v>7222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2088,13 +2076,13 @@
         <v>2993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2103,13 +2091,13 @@
         <v>10215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2112,13 @@
         <v>473110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -2139,13 +2127,13 @@
         <v>454661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2154,13 +2142,13 @@
         <v>927771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2216,13 @@
         <v>37354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2243,13 +2231,13 @@
         <v>82913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -2258,13 +2246,13 @@
         <v>120266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2297,13 @@
         <v>6825529</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C38DEF-9D1D-42BB-8901-19991DDBB50F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C4AD0-A512-49A0-A7CD-D7B89F32E3F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2520,7 +2508,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2535,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2550,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2583,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2598,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2675,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2723,7 +2711,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2830,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2845,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2860,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2866,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2893,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2908,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2985,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3000,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3015,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3021,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3048,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3063,7 +3051,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3141,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0F81A2-B3A9-40E3-98C7-5679BCE232AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38E518-1E6D-490C-9949-FCA31283BFAD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3271,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3286,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3301,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3334,7 +3322,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3349,7 +3337,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3426,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3441,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3474,7 +3462,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3489,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3581,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3596,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3611,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3644,7 +3632,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3659,7 +3647,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3751,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3799,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3808,7 +3796,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952539</v>
+        <v>2952540</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -3859,7 +3847,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952539</v>
+        <v>2952540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7EB354-BC9B-41F6-B70D-089D11F0DF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D355B8B-F1F1-4A8A-AA64-DB124D5F4F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44E4E245-400A-4A0A-97EC-3FE50436451D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5010245F-942D-4CAE-ACD2-8AAC51C8FFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AED78E-CE9B-4112-BE3E-011F5F24743E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD24E4FD-67D2-4810-A4E7-3CCF61DEFEF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1388,7 +1388,7 @@
         <v>567</v>
       </c>
       <c r="N11" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1439,7 +1439,7 @@
         <v>567</v>
       </c>
       <c r="N12" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1627,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9A315A-3489-4E33-A69B-35B12BA01BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC5A9F1-0ED9-49C3-9C05-90CEE6357306}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1829,7 +1829,7 @@
         <v>2083</v>
       </c>
       <c r="N5" s="7">
-        <v>2233538</v>
+        <v>2233537</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>57</v>
@@ -1880,7 +1880,7 @@
         <v>2141</v>
       </c>
       <c r="N6" s="7">
-        <v>2295938</v>
+        <v>2295937</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2378,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C4AD0-A512-49A0-A7CD-D7B89F32E3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6CBA6-686F-4946-9BE9-C3664E254721}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38E518-1E6D-490C-9949-FCA31283BFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381FB78D-CA00-4078-AD20-664DECC1CE0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3301,7 +3301,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>159697</v>
+        <v>152141</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -3316,7 +3316,7 @@
         <v>216</v>
       </c>
       <c r="I5" s="7">
-        <v>142548</v>
+        <v>126770</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -3331,7 +3331,7 @@
         <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>302245</v>
+        <v>278911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -3352,7 +3352,7 @@
         <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>159697</v>
+        <v>152141</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3367,7 +3367,7 @@
         <v>216</v>
       </c>
       <c r="I6" s="7">
-        <v>142548</v>
+        <v>126770</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3382,7 +3382,7 @@
         <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>302245</v>
+        <v>278911</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3456,7 +3456,7 @@
         <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>1132192</v>
+        <v>1291419</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -3471,7 +3471,7 @@
         <v>1071</v>
       </c>
       <c r="I8" s="7">
-        <v>891723</v>
+        <v>825965</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -3486,7 +3486,7 @@
         <v>1970</v>
       </c>
       <c r="N8" s="7">
-        <v>2023915</v>
+        <v>2117385</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -3507,7 +3507,7 @@
         <v>899</v>
       </c>
       <c r="D9" s="7">
-        <v>1132192</v>
+        <v>1291419</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3522,7 +3522,7 @@
         <v>1071</v>
       </c>
       <c r="I9" s="7">
-        <v>891723</v>
+        <v>825965</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3537,7 +3537,7 @@
         <v>1970</v>
       </c>
       <c r="N9" s="7">
-        <v>2023915</v>
+        <v>2117385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3611,7 +3611,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>321611</v>
+        <v>305958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -3626,7 +3626,7 @@
         <v>402</v>
       </c>
       <c r="I11" s="7">
-        <v>304769</v>
+        <v>278893</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3641,7 +3641,7 @@
         <v>702</v>
       </c>
       <c r="N11" s="7">
-        <v>626380</v>
+        <v>584852</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -3662,7 +3662,7 @@
         <v>300</v>
       </c>
       <c r="D12" s="7">
-        <v>321611</v>
+        <v>305958</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3677,7 +3677,7 @@
         <v>402</v>
       </c>
       <c r="I12" s="7">
-        <v>304769</v>
+        <v>278893</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3692,7 +3692,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>626380</v>
+        <v>584852</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3766,7 +3766,7 @@
         <v>1381</v>
       </c>
       <c r="D14" s="7">
-        <v>1613500</v>
+        <v>1749518</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -3781,7 +3781,7 @@
         <v>1689</v>
       </c>
       <c r="I14" s="7">
-        <v>1339040</v>
+        <v>1231629</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3796,7 +3796,7 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952540</v>
+        <v>2981147</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -3817,7 +3817,7 @@
         <v>1381</v>
       </c>
       <c r="D15" s="7">
-        <v>1613500</v>
+        <v>1749518</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3832,7 +3832,7 @@
         <v>1689</v>
       </c>
       <c r="I15" s="7">
-        <v>1339040</v>
+        <v>1231629</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3847,7 +3847,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952540</v>
+        <v>2981147</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
